--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\GOAT2.0\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Adidas" sheetId="1" r:id="rId2"/>
     <sheet name="Jordan" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
   <si>
     <t>Código</t>
   </si>
@@ -203,42 +208,6 @@
   </si>
   <si>
     <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Cinzento, Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool AERO800 Torre-Midi Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS-1 Midi Tower Case - Black Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool VS3 Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Aerocool V3X Advance Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Tacens AC017AD Mini-Torre Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
 </sst>
 </file>
@@ -411,7 +380,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,7 +415,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1189,7 +1158,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C21" sqref="A14:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,72 +1311,12 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="6">
-        <v>69.989999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="6">
-        <v>78.989999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="6">
-        <v>37.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="6">
-        <v>51.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="6">
-        <v>37.19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="6">
-        <v>19.09</v>
-      </c>
-    </row>
+    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="2" r:id="rId1"/>
@@ -28,20 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>Código</t>
   </si>
   <si>
-    <t>Designação</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
     <t>01</t>
   </si>
   <si>
@@ -81,15 +75,6 @@
     <t>Marca</t>
   </si>
   <si>
-    <t>nvidia</t>
-  </si>
-  <si>
-    <t>amd</t>
-  </si>
-  <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>ASUS</t>
   </si>
   <si>
@@ -105,72 +90,6 @@
     <t>Palit</t>
   </si>
   <si>
-    <t>Sapphire</t>
-  </si>
-  <si>
-    <t>RTX 2060</t>
-  </si>
-  <si>
-    <t>RTX 2070</t>
-  </si>
-  <si>
-    <t>RTX 2080</t>
-  </si>
-  <si>
-    <t>GTX 1660 TI</t>
-  </si>
-  <si>
-    <t>GTX 1070</t>
-  </si>
-  <si>
-    <t>GT 1030</t>
-  </si>
-  <si>
-    <t>TITAN</t>
-  </si>
-  <si>
-    <t>GTS 210</t>
-  </si>
-  <si>
-    <t>Vega 56</t>
-  </si>
-  <si>
-    <t>Vega 64</t>
-  </si>
-  <si>
-    <t>RX 550</t>
-  </si>
-  <si>
-    <t>RX 590</t>
-  </si>
-  <si>
-    <t>Tamanho</t>
-  </si>
-  <si>
-    <t>Sync</t>
-  </si>
-  <si>
-    <t>Asus</t>
-  </si>
-  <si>
-    <t>AOC</t>
-  </si>
-  <si>
-    <t>Acer</t>
-  </si>
-  <si>
-    <t>BenQ</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>LG</t>
-  </si>
-  <si>
     <t>Sku</t>
   </si>
   <si>
@@ -208,6 +127,108 @@
   </si>
   <si>
     <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>Air Force 1 Low 'Have a Nike Day - White'</t>
+  </si>
+  <si>
+    <t>Air Force 1 '07 'Black'</t>
+  </si>
+  <si>
+    <t>Air Force 1 '07 'White'</t>
+  </si>
+  <si>
+    <t>Preto/Branco</t>
+  </si>
+  <si>
+    <t>Preto</t>
+  </si>
+  <si>
+    <t>Branco</t>
+  </si>
+  <si>
+    <t>Branco/Preto</t>
+  </si>
+  <si>
+    <t>Air Force 1 Low '07 3 'White Black'</t>
+  </si>
+  <si>
+    <t>Air Max 97 'Black'</t>
+  </si>
+  <si>
+    <t>Air Max 97 Premium 'Black White'</t>
+  </si>
+  <si>
+    <t>Air Max 97 'All Star Jersey'</t>
+  </si>
+  <si>
+    <t>Branco/Vermelho/Azul</t>
+  </si>
+  <si>
+    <t>Air Huarache Premium Zip 'Black'</t>
+  </si>
+  <si>
+    <t>Air Max 270 'White'</t>
+  </si>
+  <si>
+    <t>Air Max 270 'Habanero Red'</t>
+  </si>
+  <si>
+    <t>Vermelho/Preto/Branco</t>
+  </si>
+  <si>
+    <t>Air Max 270 'Tea Berry'</t>
+  </si>
+  <si>
+    <t>Branco/Azul</t>
+  </si>
+  <si>
+    <t>Air Huarache Zip 'Bright Citron'</t>
+  </si>
+  <si>
+    <t>Amarelo/Branco/Preto</t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Nome2</t>
+  </si>
+  <si>
+    <t>Yeezy Boost 350 V2 'Cream White / Triple White'</t>
+  </si>
+  <si>
+    <t>UltraBoost 4.0 'Triple White'</t>
+  </si>
+  <si>
+    <t>NMD_R1 'Carbon'</t>
+  </si>
+  <si>
+    <t>Branco/Cinzento/Branco</t>
+  </si>
+  <si>
+    <t>Undefeated x UltraBoost 'Shift Grey'</t>
+  </si>
+  <si>
+    <t>Cinzento/Branco</t>
+  </si>
+  <si>
+    <t>Pharrell x Solar Hu Glide ST 'Chinese New Year'</t>
+  </si>
+  <si>
+    <t>Escarlate/Branco/Preto</t>
+  </si>
+  <si>
+    <t>Stan Smith 'Fairway'</t>
+  </si>
+  <si>
+    <t>Branco/Verde</t>
   </si>
 </sst>
 </file>
@@ -217,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +247,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -254,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -268,6 +297,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -314,8 +347,8 @@
   <tableColumns count="5">
     <tableColumn id="1" name="Código" dataDxfId="4"/>
     <tableColumn id="2" name="Marca" dataDxfId="3"/>
-    <tableColumn id="3" name="Tamanho" dataDxfId="2"/>
-    <tableColumn id="4" name="Sync" dataDxfId="1"/>
+    <tableColumn id="3" name="Nome" dataDxfId="2"/>
+    <tableColumn id="4" name="Cores" dataDxfId="1"/>
     <tableColumn id="5" name="Preço" dataDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -323,14 +356,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:F13" totalsRowShown="0">
-  <autoFilter ref="A1:F13"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Código"/>
-    <tableColumn id="3" name="Fabricante"/>
-    <tableColumn id="4" name="Marca"/>
-    <tableColumn id="5" name="Designação"/>
-    <tableColumn id="7" name="Quantidade"/>
+    <tableColumn id="3" name="Nome"/>
+    <tableColumn id="4" name="Nome2"/>
+    <tableColumn id="7" name="Cores"/>
     <tableColumn id="6" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -626,15 +658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E13"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,513 +675,475 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E6" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="E10" s="5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5">
         <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="5">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="5">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="6">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E11" s="6">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2">
-        <v>6</v>
-      </c>
-      <c r="F2" s="6">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="E12" s="6">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="6">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="6">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="E13" s="6">
         <v>145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1157,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A14:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,21 +1165,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6">
         <v>94.99</v>
@@ -1192,10 +1187,10 @@
     </row>
     <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C3" s="6">
         <v>102.99</v>
@@ -1203,10 +1198,10 @@
     </row>
     <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6">
         <v>37.99</v>
@@ -1214,10 +1209,10 @@
     </row>
     <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C5" s="6">
         <v>23.09</v>
@@ -1225,10 +1220,10 @@
     </row>
     <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6">
         <v>419.99</v>
@@ -1236,10 +1231,10 @@
     </row>
     <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C7" s="6">
         <v>94.99</v>
@@ -1247,10 +1242,10 @@
     </row>
     <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6">
         <v>21.19</v>
@@ -1258,10 +1253,10 @@
     </row>
     <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C9" s="6">
         <v>391.99</v>
@@ -1269,10 +1264,10 @@
     </row>
     <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C10" s="6">
         <v>350.99</v>
@@ -1280,10 +1275,10 @@
     </row>
     <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6">
         <v>267.99</v>
@@ -1291,10 +1286,10 @@
     </row>
     <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C12" s="6">
         <v>115.99</v>
@@ -1302,10 +1297,10 @@
     </row>
     <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6">
         <v>59.99</v>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="5955" yWindow="4005" windowWidth="19440" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nike" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>Código</t>
   </si>
@@ -75,24 +75,6 @@
     <t>Marca</t>
   </si>
   <si>
-    <t>ASUS</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>Gigabyte</t>
-  </si>
-  <si>
-    <t>EVGA</t>
-  </si>
-  <si>
-    <t>Palit</t>
-  </si>
-  <si>
-    <t>Sku</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -198,9 +180,6 @@
     <t>Adidas</t>
   </si>
   <si>
-    <t>Nome2</t>
-  </si>
-  <si>
     <t>Yeezy Boost 350 V2 'Cream White / Triple White'</t>
   </si>
   <si>
@@ -229,6 +208,39 @@
   </si>
   <si>
     <t>Branco/Verde</t>
+  </si>
+  <si>
+    <t>Stan Smith 'Collegiate Red'</t>
+  </si>
+  <si>
+    <t>Branco/Vermelho</t>
+  </si>
+  <si>
+    <t>P.O.D. S3.1 'Alphatype'</t>
+  </si>
+  <si>
+    <t>Preto/Branco/Azul</t>
+  </si>
+  <si>
+    <t>P.O.D. S3.1 'Cloud White'</t>
+  </si>
+  <si>
+    <t>Superstar 'Running White'</t>
+  </si>
+  <si>
+    <t>Branco /Preto/Dourado</t>
+  </si>
+  <si>
+    <t>Superstar 'NFL Pack'</t>
+  </si>
+  <si>
+    <t>Azul/Branco/Vermelho</t>
+  </si>
+  <si>
+    <t>Superstar FD 'Dark Blue'</t>
+  </si>
+  <si>
+    <t>Branco/Azul/Vermelho</t>
   </si>
 </sst>
 </file>
@@ -360,8 +372,8 @@
   <autoFilter ref="A1:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Código"/>
-    <tableColumn id="3" name="Nome"/>
-    <tableColumn id="4" name="Nome2"/>
+    <tableColumn id="3" name="Marca"/>
+    <tableColumn id="4" name="Nome"/>
     <tableColumn id="7" name="Cores"/>
     <tableColumn id="6" name="Preço" dataCellStyle="Moeda"/>
   </tableColumns>
@@ -679,10 +691,10 @@
         <v>14</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -693,13 +705,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="5">
         <v>90</v>
@@ -710,13 +722,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
       </c>
       <c r="E3" s="5">
         <v>90</v>
@@ -727,13 +739,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
       </c>
       <c r="E4" s="5">
         <v>140</v>
@@ -744,13 +756,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5" s="5">
         <v>115</v>
@@ -761,13 +773,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5">
         <v>180</v>
@@ -778,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5">
         <v>140</v>
@@ -795,13 +807,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <v>145</v>
@@ -812,13 +824,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
         <v>115</v>
@@ -829,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5">
         <v>115</v>
@@ -846,13 +858,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E11" s="5">
         <v>150</v>
@@ -863,13 +875,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5">
         <v>100</v>
@@ -880,13 +892,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5">
         <v>180</v>
@@ -905,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -940,13 +952,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E2" s="6">
         <v>250</v>
@@ -957,13 +969,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6">
         <v>145</v>
@@ -974,13 +986,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
@@ -991,13 +1003,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>62</v>
       </c>
       <c r="E5" s="6">
         <v>130</v>
@@ -1008,13 +1020,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6">
         <v>125</v>
@@ -1025,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6">
         <v>70</v>
@@ -1042,16 +1054,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
       </c>
       <c r="E8" s="6">
-        <v>600</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,16 +1071,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
+        <v>62</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
       </c>
       <c r="E9" s="6">
-        <v>65</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1076,16 +1088,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="6">
-        <v>420</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1093,16 +1105,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
       </c>
       <c r="E11" s="6">
-        <v>315</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,16 +1122,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
       </c>
       <c r="E12" s="6">
-        <v>575</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1127,16 +1139,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="6">
-        <v>145</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1150,168 +1162,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6">
         <v>94.99</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6">
         <v>102.99</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6">
         <v>37.99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6">
         <v>23.09</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6">
         <v>419.99</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6">
         <v>94.99</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6">
         <v>21.19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
         <v>391.99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6">
         <v>350.99</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6">
         <v>267.99</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6">
         <v>115.99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6">
         <v>59.99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="14.45" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="14.45" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Código</t>
   </si>
@@ -78,39 +78,6 @@
     <t>Nome</t>
   </si>
   <si>
-    <t>Antec ISK 300-150 EC PC 150W Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>Cooler Master CM 690 III Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
-    <t>UNYKA - CAIXA DESKTOP SLIM M.ATX UK-2007 USB 3.0 400W PRETA</t>
-  </si>
-  <si>
-    <t>UNYKAch Blast Ice Torre Preto, Branco caixa para computador</t>
-  </si>
-  <si>
-    <t>ASUS - PC VIVOPC I5-7200U S/MEN S/ HD S/SO - UN65U-BM009M</t>
-  </si>
-  <si>
-    <t>MARS GAMING - BUNDLE - MARS GAMING - CAIXA MC0 VENTOINHA MF12G</t>
-  </si>
-  <si>
-    <t>ASUS UN65H-M227M BGA 1356 2.3GHz i3-6100U PC de 0,88L Azul</t>
-  </si>
-  <si>
-    <t>ASUS UN65U-BM008M BGA 1356 2.40GHz i3-7100U Azul</t>
-  </si>
-  <si>
-    <t>COOLER MASTER - MASTER ATX MASTERCASE MAKER 5T PRETA SEM FONTE</t>
-  </si>
-  <si>
-    <t>NOX - Ark Gaming case</t>
-  </si>
-  <si>
-    <t>Aerocool BATTLEHAWK Torre-Midi Preto caixa para computador</t>
-  </si>
-  <si>
     <t>Nike</t>
   </si>
   <si>
@@ -241,6 +208,66 @@
   </si>
   <si>
     <t>Branco/Azul/Vermelho</t>
+  </si>
+  <si>
+    <t>Air Jordan</t>
+  </si>
+  <si>
+    <t>Air Jordan 4 Retro 'Laser'</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG Premium 'Yin Yang'</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG Prm 'Yin Yang'</t>
+  </si>
+  <si>
+    <t>Air Jordan 5 Retro 'Red Suede'</t>
+  </si>
+  <si>
+    <t>Vermelho</t>
+  </si>
+  <si>
+    <t>Air Jordan 13 Retro 'Bred' 2017</t>
+  </si>
+  <si>
+    <t>Preto/Vermelho</t>
+  </si>
+  <si>
+    <t>Air Jordan 5 Retro 'Blue Suede'</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>Air Jordan 4 Retro 'Pale Citron'</t>
+  </si>
+  <si>
+    <t>Branco/Preto/Laranja</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG 'Neutral Grey'</t>
+  </si>
+  <si>
+    <t>Cinzento/Preto</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG 'A Star Is Born'</t>
+  </si>
+  <si>
+    <t>Branco/Preto/Vermelho/Verde</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Retro High OG 'Phantom'</t>
+  </si>
+  <si>
+    <t>Air Jordan 1 Mid Patent 'Black Gold'</t>
+  </si>
+  <si>
+    <t>Branco/Preto/Dourado</t>
+  </si>
+  <si>
+    <t>Air Jordan 3 Retro Tinker 'Air Max 1'</t>
   </si>
 </sst>
 </file>
@@ -694,7 +721,7 @@
         <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -705,13 +732,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E2" s="5">
         <v>90</v>
@@ -722,13 +749,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5">
         <v>90</v>
@@ -739,13 +766,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E4" s="5">
         <v>140</v>
@@ -756,13 +783,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5">
         <v>115</v>
@@ -773,13 +800,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5">
         <v>180</v>
@@ -790,13 +817,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5">
         <v>140</v>
@@ -807,13 +834,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5">
         <v>145</v>
@@ -824,13 +851,13 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9" s="5">
         <v>115</v>
@@ -841,13 +868,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>115</v>
@@ -858,13 +885,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
         <v>150</v>
@@ -875,13 +902,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5">
         <v>100</v>
@@ -892,13 +919,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5">
         <v>180</v>
@@ -917,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -941,7 +968,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -952,13 +979,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E2" s="6">
         <v>250</v>
@@ -969,13 +996,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E3" s="6">
         <v>145</v>
@@ -986,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6">
         <v>100</v>
@@ -1003,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6">
         <v>130</v>
@@ -1020,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6">
         <v>125</v>
@@ -1037,13 +1064,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6">
         <v>70</v>
@@ -1054,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E8" s="6">
         <v>90</v>
@@ -1071,13 +1098,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E9" s="6">
         <v>195</v>
@@ -1088,13 +1115,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6">
         <v>80</v>
@@ -1105,13 +1132,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E11" s="6">
         <v>65</v>
@@ -1122,13 +1149,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6">
         <v>140</v>
@@ -1139,13 +1166,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E13" s="6">
         <v>85</v>
@@ -1162,21 +1189,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,144 +1214,219 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>102.99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="6">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6">
-        <v>23.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="6">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6">
-        <v>419.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6">
-        <v>94.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>21.19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6">
-        <v>391.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="6">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6">
-        <v>350.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6">
-        <v>267.99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6">
-        <v>115.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6">
-        <v>59.99</v>
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>